--- a/resources/AP1/Notes_ApresRats.xlsx
+++ b/resources/AP1/Notes_ApresRats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\AP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D942B8B-74CE-49EA-BC63-AD0F93C9CFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40603285-3C6A-493B-BE0A-A993180A4423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1B90164-4942-412C-B8F7-B03A938FB1C5}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>CNE</t>
   </si>
@@ -43,66 +43,6 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>AP1_LN1</t>
-  </si>
-  <si>
-    <t>AP1_FN1</t>
-  </si>
-  <si>
-    <t>AP1_LN2</t>
-  </si>
-  <si>
-    <t>AP1_FN2</t>
-  </si>
-  <si>
-    <t>AP1_LN3</t>
-  </si>
-  <si>
-    <t>AP1_FN3</t>
-  </si>
-  <si>
-    <t>AP1_LN4</t>
-  </si>
-  <si>
-    <t>AP1_FN4</t>
-  </si>
-  <si>
-    <t>AP1_LN5</t>
-  </si>
-  <si>
-    <t>AP1_FN5</t>
-  </si>
-  <si>
-    <t>AP1_LN6</t>
-  </si>
-  <si>
-    <t>AP1_FN6</t>
-  </si>
-  <si>
-    <t>AP1_LN7</t>
-  </si>
-  <si>
-    <t>AP1_FN7</t>
-  </si>
-  <si>
-    <t>AP1_LN8</t>
-  </si>
-  <si>
-    <t>AP1_FN8</t>
-  </si>
-  <si>
-    <t>AP1_LN9</t>
-  </si>
-  <si>
-    <t>AP1_FN9</t>
-  </si>
-  <si>
-    <t>AP1_LN10</t>
-  </si>
-  <si>
-    <t>AP1_FN10</t>
-  </si>
-  <si>
     <t>Note_AP11</t>
   </si>
   <si>
@@ -128,6 +68,306 @@
   </si>
   <si>
     <t>Note_AP19</t>
+  </si>
+  <si>
+    <t>Armand Bryan</t>
+  </si>
+  <si>
+    <t>Harrison Stanton</t>
+  </si>
+  <si>
+    <t>Jesse Daniels</t>
+  </si>
+  <si>
+    <t>Jeanette Snyder</t>
+  </si>
+  <si>
+    <t>Hope Macdonald</t>
+  </si>
+  <si>
+    <t>Dante Hampton</t>
+  </si>
+  <si>
+    <t>Keefe Reyes</t>
+  </si>
+  <si>
+    <t>Glenna Hays</t>
+  </si>
+  <si>
+    <t>Mercedes Herring</t>
+  </si>
+  <si>
+    <t>Channing Buckley</t>
+  </si>
+  <si>
+    <t>Paki Ruiz</t>
+  </si>
+  <si>
+    <t>Lacey Robertson</t>
+  </si>
+  <si>
+    <t>Kellie Bradshaw</t>
+  </si>
+  <si>
+    <t>Sebastian Moss</t>
+  </si>
+  <si>
+    <t>Barbara Sweet</t>
+  </si>
+  <si>
+    <t>Gay Daniel</t>
+  </si>
+  <si>
+    <t>Mira Serrano</t>
+  </si>
+  <si>
+    <t>Haviva Ellison</t>
+  </si>
+  <si>
+    <t>Clare Fields</t>
+  </si>
+  <si>
+    <t>Morgan Anderson</t>
+  </si>
+  <si>
+    <t>Kelsie Flores</t>
+  </si>
+  <si>
+    <t>Marny Schwartz</t>
+  </si>
+  <si>
+    <t>Wesley Booker</t>
+  </si>
+  <si>
+    <t>Jacqueline Carroll</t>
+  </si>
+  <si>
+    <t>Meredith Gould</t>
+  </si>
+  <si>
+    <t>Barrett Miles</t>
+  </si>
+  <si>
+    <t>Ignacia Glover</t>
+  </si>
+  <si>
+    <t>Wilma Cruz</t>
+  </si>
+  <si>
+    <t>Colby Ballard</t>
+  </si>
+  <si>
+    <t>Kimberley Douglas</t>
+  </si>
+  <si>
+    <t>Giacomo Richardson</t>
+  </si>
+  <si>
+    <t>Yardley Garner</t>
+  </si>
+  <si>
+    <t>Ima Mckinney</t>
+  </si>
+  <si>
+    <t>Amity Hendricks</t>
+  </si>
+  <si>
+    <t>Drew Montoya</t>
+  </si>
+  <si>
+    <t>Kermit Kemp</t>
+  </si>
+  <si>
+    <t>Lavinia Owen</t>
+  </si>
+  <si>
+    <t>Kasimir Manning</t>
+  </si>
+  <si>
+    <t>Lacey Hull</t>
+  </si>
+  <si>
+    <t>Cherokee Norton</t>
+  </si>
+  <si>
+    <t>Seth Fitzpatrick</t>
+  </si>
+  <si>
+    <t>Lois Mack</t>
+  </si>
+  <si>
+    <t>Wylie Ferguson</t>
+  </si>
+  <si>
+    <t>Phyllis Wolf</t>
+  </si>
+  <si>
+    <t>Ulla Alvarez</t>
+  </si>
+  <si>
+    <t>Rajah Bell</t>
+  </si>
+  <si>
+    <t>Brandon Andrews</t>
+  </si>
+  <si>
+    <t>Murphy Cantrell</t>
+  </si>
+  <si>
+    <t>Amal Schultz</t>
+  </si>
+  <si>
+    <t>Colette Mcgowan</t>
+  </si>
+  <si>
+    <t>Miriam Cunningham</t>
+  </si>
+  <si>
+    <t>Kerry Fisher</t>
+  </si>
+  <si>
+    <t>Armando Camacho</t>
+  </si>
+  <si>
+    <t>Kim Douglas</t>
+  </si>
+  <si>
+    <t>MacKensie Nelson</t>
+  </si>
+  <si>
+    <t>Brendan Albert</t>
+  </si>
+  <si>
+    <t>Ivory Austin</t>
+  </si>
+  <si>
+    <t>Jocelyn Hensley</t>
+  </si>
+  <si>
+    <t>Ann Taylor</t>
+  </si>
+  <si>
+    <t>Celeste Guzman</t>
+  </si>
+  <si>
+    <t>Daria Bradshaw</t>
+  </si>
+  <si>
+    <t>Owen Booth</t>
+  </si>
+  <si>
+    <t>Hu Olsen</t>
+  </si>
+  <si>
+    <t>Daryl Farley</t>
+  </si>
+  <si>
+    <t>Jason Hughes</t>
+  </si>
+  <si>
+    <t>Melyssa Gallegos</t>
+  </si>
+  <si>
+    <t>Veronica Hammond</t>
+  </si>
+  <si>
+    <t>Nola Tyler</t>
+  </si>
+  <si>
+    <t>Sonya Alexander</t>
+  </si>
+  <si>
+    <t>Liberty Macias</t>
+  </si>
+  <si>
+    <t>Dana Roberson</t>
+  </si>
+  <si>
+    <t>Salvador Schwartz</t>
+  </si>
+  <si>
+    <t>Edward Turner</t>
+  </si>
+  <si>
+    <t>Quyn Cooley</t>
+  </si>
+  <si>
+    <t>Kasimir Buchanan</t>
+  </si>
+  <si>
+    <t>Geoffrey Conway</t>
+  </si>
+  <si>
+    <t>Walter Copeland</t>
+  </si>
+  <si>
+    <t>Quail Avila</t>
+  </si>
+  <si>
+    <t>Hedwig Adams</t>
+  </si>
+  <si>
+    <t>Lev Kline</t>
+  </si>
+  <si>
+    <t>Sopoline Bentley</t>
+  </si>
+  <si>
+    <t>Hayley Humphrey</t>
+  </si>
+  <si>
+    <t>Hollee Schroeder</t>
+  </si>
+  <si>
+    <t>Nathaniel Armstrong</t>
+  </si>
+  <si>
+    <t>Ayanna Carr</t>
+  </si>
+  <si>
+    <t>Bianca Trevino</t>
+  </si>
+  <si>
+    <t>Craig Gamble</t>
+  </si>
+  <si>
+    <t>Tallulah Riggs</t>
+  </si>
+  <si>
+    <t>Molly Atkins</t>
+  </si>
+  <si>
+    <t>Farrah Workman</t>
+  </si>
+  <si>
+    <t>Regan Burns</t>
+  </si>
+  <si>
+    <t>Kermit Lester</t>
+  </si>
+  <si>
+    <t>Hope Ingram</t>
+  </si>
+  <si>
+    <t>Walker Goodman</t>
+  </si>
+  <si>
+    <t>Conan Mcneil</t>
+  </si>
+  <si>
+    <t>Sylvia Wiggins</t>
+  </si>
+  <si>
+    <t>Vincent Cobb</t>
+  </si>
+  <si>
+    <t>Russell Calderon</t>
+  </si>
+  <si>
+    <t>Lacy Watkins</t>
+  </si>
+  <si>
+    <t>Jarrod Boyer</t>
   </si>
 </sst>
 </file>
@@ -157,7 +397,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -180,13 +420,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0360A721-4CD6-4D0B-8DE9-EC3785724FF4}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,69 +774,69 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>21000001</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
       <c r="D2">
-        <v>12.34</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>10.73</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>15.33</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>18.7</v>
+        <v>15</v>
       </c>
       <c r="H2">
-        <v>12.76</v>
+        <v>16</v>
       </c>
       <c r="I2">
-        <v>14.5</v>
+        <v>9</v>
       </c>
       <c r="J2">
-        <v>13.44</v>
+        <v>9</v>
       </c>
       <c r="K2">
-        <v>12.23</v>
+        <v>13</v>
       </c>
       <c r="L2">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -590,77 +844,77 @@
         <f>A2+1</f>
         <v>21000002</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>9.8699999999999992</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>10</v>
       </c>
       <c r="H3">
-        <v>11.63</v>
+        <v>9</v>
       </c>
       <c r="I3">
-        <v>15.35</v>
+        <v>11</v>
       </c>
       <c r="J3">
-        <v>18.88</v>
+        <v>10</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A10" si="0">A3+1</f>
+        <f t="shared" ref="A4:A51" si="0">A3+1</f>
         <v>21000003</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>13.06</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>12.38</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>14.67</v>
+        <v>17</v>
       </c>
       <c r="H4">
-        <v>17.87</v>
+        <v>16</v>
       </c>
       <c r="I4">
-        <v>9.98</v>
+        <v>16</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L4">
-        <v>15.7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -668,38 +922,38 @@
         <f t="shared" si="0"/>
         <v>21000004</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>18.62</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>15.67</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>18.79</v>
+        <v>11</v>
       </c>
       <c r="G5">
-        <v>18.690000000000001</v>
+        <v>14</v>
       </c>
       <c r="H5">
-        <v>15.88</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>8.9600000000000009</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <v>10.66</v>
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L5">
-        <v>17.04</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -707,38 +961,38 @@
         <f t="shared" si="0"/>
         <v>21000005</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>14.54</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>12.97</v>
+        <v>19</v>
       </c>
       <c r="F6">
-        <v>10.97</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>13.81</v>
+        <v>13</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I6">
-        <v>17.91</v>
+        <v>15</v>
       </c>
       <c r="J6">
-        <v>14.69</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>12.15</v>
+        <v>16</v>
       </c>
       <c r="L6">
-        <v>15.92</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -746,38 +1000,38 @@
         <f t="shared" si="0"/>
         <v>21000006</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>13.8</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>11.23</v>
+        <v>12</v>
       </c>
       <c r="I7">
-        <v>11.67</v>
+        <v>14</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -785,38 +1039,38 @@
         <f t="shared" si="0"/>
         <v>21000007</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>16.170000000000002</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>18.940000000000001</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>18.05</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>12.67</v>
+        <v>14</v>
       </c>
       <c r="H8">
-        <v>14.25</v>
+        <v>18</v>
       </c>
       <c r="I8">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>19.18</v>
+        <v>7</v>
       </c>
       <c r="K8">
-        <v>10.45</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>6.98</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -824,38 +1078,38 @@
         <f t="shared" si="0"/>
         <v>21000008</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>14.55</v>
+        <v>12</v>
       </c>
       <c r="E9">
-        <v>14.89</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>14.45</v>
+        <v>16</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I9">
-        <v>12.75</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>15.01</v>
+        <v>12</v>
       </c>
       <c r="K9">
-        <v>10.38</v>
+        <v>19</v>
       </c>
       <c r="L9">
-        <v>16.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -863,77 +1117,1637 @@
         <f t="shared" si="0"/>
         <v>21000009</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>16</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="K10">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>21000010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <v>9</v>
+      </c>
+      <c r="K11">
+        <v>17</v>
+      </c>
+      <c r="L11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>21000011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>19</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>21000012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
         <v>20</v>
       </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>11.71</v>
-      </c>
-      <c r="F10">
-        <v>11.57</v>
-      </c>
-      <c r="G10">
-        <v>10.59</v>
-      </c>
-      <c r="H10">
-        <v>10.65</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <v>13.3</v>
-      </c>
-      <c r="K10">
-        <v>17.75</v>
-      </c>
-      <c r="L10">
-        <v>13.09</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <f t="shared" ref="A11" si="1">$A10+1</f>
-        <v>21000010</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>13.16</v>
-      </c>
-      <c r="H11">
+      <c r="K13">
+        <v>14</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>21000013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14">
         <v>19</v>
       </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-      <c r="J11">
-        <v>15.74</v>
-      </c>
-      <c r="K11">
-        <v>18.97</v>
-      </c>
-      <c r="L11">
-        <v>17.739999999999998</v>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="I14">
+        <v>16</v>
+      </c>
+      <c r="J14">
+        <v>18</v>
+      </c>
+      <c r="K14">
+        <v>16</v>
+      </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>21000014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>21000015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+      <c r="J16">
+        <v>8</v>
+      </c>
+      <c r="K16">
+        <v>18</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>21000016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+      <c r="H17">
+        <v>17</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>21000017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>18</v>
+      </c>
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <v>19</v>
+      </c>
+      <c r="L18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>21000018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="F19">
+        <v>14</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>16</v>
+      </c>
+      <c r="I19">
+        <v>13</v>
+      </c>
+      <c r="J19">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>21000019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>16</v>
+      </c>
+      <c r="L20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>21000020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>13</v>
+      </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <v>18</v>
+      </c>
+      <c r="L21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>21000021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>9</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <v>14</v>
+      </c>
+      <c r="L22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>21000022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>16</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>21000023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>18</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <v>18</v>
+      </c>
+      <c r="L24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>21000024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>16</v>
+      </c>
+      <c r="H25">
+        <v>15</v>
+      </c>
+      <c r="I25">
+        <v>15</v>
+      </c>
+      <c r="J25">
+        <v>15</v>
+      </c>
+      <c r="K25">
+        <v>13</v>
+      </c>
+      <c r="L25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>21000025</v>
+      </c>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>12</v>
+      </c>
+      <c r="H26">
+        <v>11</v>
+      </c>
+      <c r="I26">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>6</v>
+      </c>
+      <c r="K26">
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>21000026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>17</v>
+      </c>
+      <c r="I27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>15</v>
+      </c>
+      <c r="K27">
+        <v>16</v>
+      </c>
+      <c r="L27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>21000027</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <v>14</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>8</v>
+      </c>
+      <c r="G28">
+        <v>17</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>7</v>
+      </c>
+      <c r="J28">
+        <v>16</v>
+      </c>
+      <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="L28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>21000028</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>11</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>15</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
+      </c>
+      <c r="L29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>21000029</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>15</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <v>14</v>
+      </c>
+      <c r="J30">
+        <v>15</v>
+      </c>
+      <c r="K30">
+        <v>15</v>
+      </c>
+      <c r="L30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>21000030</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>12</v>
+      </c>
+      <c r="H31">
+        <v>8</v>
+      </c>
+      <c r="I31">
+        <v>18</v>
+      </c>
+      <c r="J31">
+        <v>14</v>
+      </c>
+      <c r="K31">
+        <v>16</v>
+      </c>
+      <c r="L31">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>21000031</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>14</v>
+      </c>
+      <c r="H32">
+        <v>16</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>11</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>21000032</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>11</v>
+      </c>
+      <c r="H33">
+        <v>17</v>
+      </c>
+      <c r="I33">
+        <v>7</v>
+      </c>
+      <c r="J33">
+        <v>18</v>
+      </c>
+      <c r="K33">
+        <v>11</v>
+      </c>
+      <c r="L33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>21000033</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34">
+        <v>11</v>
+      </c>
+      <c r="E34">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>18</v>
+      </c>
+      <c r="H34">
+        <v>17</v>
+      </c>
+      <c r="I34">
+        <v>16</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+      <c r="K34">
+        <v>14</v>
+      </c>
+      <c r="L34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>21000034</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>14</v>
+      </c>
+      <c r="G35">
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <v>16</v>
+      </c>
+      <c r="I35">
+        <v>13</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>9</v>
+      </c>
+      <c r="L35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>21000035</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>17</v>
+      </c>
+      <c r="I36">
+        <v>15</v>
+      </c>
+      <c r="J36">
+        <v>20</v>
+      </c>
+      <c r="K36">
+        <v>12</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>21000036</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37">
+        <v>11</v>
+      </c>
+      <c r="E37">
+        <v>12</v>
+      </c>
+      <c r="F37">
+        <v>13</v>
+      </c>
+      <c r="G37">
+        <v>13</v>
+      </c>
+      <c r="H37">
+        <v>11</v>
+      </c>
+      <c r="I37">
+        <v>12</v>
+      </c>
+      <c r="J37">
+        <v>9</v>
+      </c>
+      <c r="K37">
+        <v>12</v>
+      </c>
+      <c r="L37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>21000037</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>15</v>
+      </c>
+      <c r="F38">
+        <v>12</v>
+      </c>
+      <c r="G38">
+        <v>17</v>
+      </c>
+      <c r="H38">
+        <v>13</v>
+      </c>
+      <c r="I38">
+        <v>13</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <v>14</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>21000038</v>
+      </c>
+      <c r="B39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <v>14</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>17</v>
+      </c>
+      <c r="I39">
+        <v>15</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>17</v>
+      </c>
+      <c r="L39">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <f t="shared" si="0"/>
+        <v>21000039</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40">
+        <v>11</v>
+      </c>
+      <c r="E40">
+        <v>14</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>14</v>
+      </c>
+      <c r="I40">
+        <v>12</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <v>16</v>
+      </c>
+      <c r="L40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>21000040</v>
+      </c>
+      <c r="B41" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>19</v>
+      </c>
+      <c r="F41">
+        <v>13</v>
+      </c>
+      <c r="G41">
+        <v>18</v>
+      </c>
+      <c r="H41">
+        <v>12</v>
+      </c>
+      <c r="I41">
+        <v>17</v>
+      </c>
+      <c r="J41">
+        <v>8</v>
+      </c>
+      <c r="K41">
+        <v>12</v>
+      </c>
+      <c r="L41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <f t="shared" si="0"/>
+        <v>21000041</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42">
+        <v>19</v>
+      </c>
+      <c r="E42">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>11</v>
+      </c>
+      <c r="I42">
+        <v>17</v>
+      </c>
+      <c r="J42">
+        <v>13</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <f t="shared" si="0"/>
+        <v>21000042</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>16</v>
+      </c>
+      <c r="F43">
+        <v>13</v>
+      </c>
+      <c r="G43">
+        <v>11</v>
+      </c>
+      <c r="H43">
+        <v>16</v>
+      </c>
+      <c r="I43">
+        <v>15</v>
+      </c>
+      <c r="J43">
+        <v>12</v>
+      </c>
+      <c r="K43">
+        <v>12</v>
+      </c>
+      <c r="L43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <f t="shared" si="0"/>
+        <v>21000043</v>
+      </c>
+      <c r="B44" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>17</v>
+      </c>
+      <c r="F44">
+        <v>11</v>
+      </c>
+      <c r="G44">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>12</v>
+      </c>
+      <c r="I44">
+        <v>13</v>
+      </c>
+      <c r="J44">
+        <v>13</v>
+      </c>
+      <c r="K44">
+        <v>6</v>
+      </c>
+      <c r="L44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <f t="shared" si="0"/>
+        <v>21000044</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45">
+        <v>14</v>
+      </c>
+      <c r="E45">
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <v>17</v>
+      </c>
+      <c r="I45">
+        <v>15</v>
+      </c>
+      <c r="J45">
+        <v>13</v>
+      </c>
+      <c r="K45">
+        <v>18</v>
+      </c>
+      <c r="L45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <f t="shared" si="0"/>
+        <v>21000045</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>101</v>
+      </c>
+      <c r="D46">
+        <v>18</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>12</v>
+      </c>
+      <c r="G46">
+        <v>16</v>
+      </c>
+      <c r="H46">
+        <v>7</v>
+      </c>
+      <c r="I46">
+        <v>14</v>
+      </c>
+      <c r="J46">
+        <v>8</v>
+      </c>
+      <c r="K46">
+        <v>12</v>
+      </c>
+      <c r="L46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <f t="shared" si="0"/>
+        <v>21000046</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>11</v>
+      </c>
+      <c r="F47">
+        <v>12</v>
+      </c>
+      <c r="G47">
+        <v>18</v>
+      </c>
+      <c r="H47">
+        <v>16</v>
+      </c>
+      <c r="I47">
+        <v>9</v>
+      </c>
+      <c r="J47">
+        <v>14</v>
+      </c>
+      <c r="K47">
+        <v>15</v>
+      </c>
+      <c r="L47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <f t="shared" si="0"/>
+        <v>21000047</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48">
+        <v>19</v>
+      </c>
+      <c r="E48">
+        <v>14</v>
+      </c>
+      <c r="F48">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>18</v>
+      </c>
+      <c r="H48">
+        <v>16</v>
+      </c>
+      <c r="I48">
+        <v>16</v>
+      </c>
+      <c r="J48">
+        <v>11</v>
+      </c>
+      <c r="K48">
+        <v>17</v>
+      </c>
+      <c r="L48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <f t="shared" si="0"/>
+        <v>21000048</v>
+      </c>
+      <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49">
+        <v>17</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>14</v>
+      </c>
+      <c r="G49">
+        <v>11</v>
+      </c>
+      <c r="H49">
+        <v>19</v>
+      </c>
+      <c r="I49">
+        <v>9</v>
+      </c>
+      <c r="J49">
+        <v>10</v>
+      </c>
+      <c r="K49">
+        <v>16</v>
+      </c>
+      <c r="L49">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <f t="shared" si="0"/>
+        <v>21000049</v>
+      </c>
+      <c r="B50" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50">
+        <v>20</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>14</v>
+      </c>
+      <c r="H50">
+        <v>11</v>
+      </c>
+      <c r="I50">
+        <v>9</v>
+      </c>
+      <c r="J50">
+        <v>7</v>
+      </c>
+      <c r="K50">
+        <v>12</v>
+      </c>
+      <c r="L50">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <f t="shared" si="0"/>
+        <v>21000050</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>9</v>
+      </c>
+      <c r="F51">
+        <v>9</v>
+      </c>
+      <c r="G51">
+        <v>12</v>
+      </c>
+      <c r="H51">
+        <v>11</v>
+      </c>
+      <c r="I51">
+        <v>9</v>
+      </c>
+      <c r="J51">
+        <v>13</v>
+      </c>
+      <c r="K51">
+        <v>15</v>
+      </c>
+      <c r="L51">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/resources/AP1/Notes_ApresRats.xlsx
+++ b/resources/AP1/Notes_ApresRats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\AP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40603285-3C6A-493B-BE0A-A993180A4423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE032B1B-CE9F-43FA-9FD5-9E5926342345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B1B90164-4942-412C-B8F7-B03A938FB1C5}"/>
   </bookViews>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0360A721-4CD6-4D0B-8DE9-EC3785724FF4}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -818,7 +818,7 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -830,7 +830,7 @@
         <v>9</v>
       </c>
       <c r="J2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2">
         <v>13</v>
@@ -851,7 +851,7 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -863,7 +863,7 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I3">
         <v>11</v>
@@ -872,10 +872,10 @@
         <v>10</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -893,10 +893,10 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>17</v>
@@ -908,7 +908,7 @@
         <v>16</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K4">
         <v>12</v>
@@ -950,7 +950,7 @@
         <v>14</v>
       </c>
       <c r="K5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <v>13</v>
@@ -968,7 +968,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>19</v>
@@ -992,7 +992,7 @@
         <v>16</v>
       </c>
       <c r="L6">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -1007,7 +1007,7 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>13</v>
@@ -1025,7 +1025,7 @@
         <v>14</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K7">
         <v>12</v>
@@ -1052,7 +1052,7 @@
         <v>19</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>14</v>
@@ -1061,13 +1061,13 @@
         <v>18</v>
       </c>
       <c r="I8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L8">
         <v>13</v>
@@ -1100,7 +1100,7 @@
         <v>14</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J9">
         <v>12</v>
@@ -1139,7 +1139,7 @@
         <v>18</v>
       </c>
       <c r="I10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>19</v>
@@ -1181,7 +1181,7 @@
         <v>13</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K11">
         <v>17</v>
@@ -1205,7 +1205,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>14</v>
@@ -1253,7 +1253,7 @@
         <v>10</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I13">
         <v>12</v>
@@ -1322,7 +1322,7 @@
         <v>17</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>15</v>
@@ -1340,7 +1340,7 @@
         <v>11</v>
       </c>
       <c r="K15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>16</v>
@@ -1361,7 +1361,7 @@
         <v>13</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>8</v>
@@ -1370,13 +1370,13 @@
         <v>18</v>
       </c>
       <c r="H16">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I16">
         <v>7</v>
       </c>
       <c r="J16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K16">
         <v>18</v>
@@ -1412,7 +1412,7 @@
         <v>17</v>
       </c>
       <c r="I17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J17">
         <v>16</v>
@@ -1421,7 +1421,7 @@
         <v>8</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -1496,7 +1496,7 @@
         <v>17</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L19">
         <v>15</v>
@@ -1526,10 +1526,10 @@
         <v>13</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J20">
         <v>11</v>
@@ -1571,7 +1571,7 @@
         <v>15</v>
       </c>
       <c r="J21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K21">
         <v>18</v>
@@ -1604,7 +1604,7 @@
         <v>16</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I22">
         <v>12</v>
@@ -1616,7 +1616,7 @@
         <v>14</v>
       </c>
       <c r="L22">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -1643,10 +1643,10 @@
         <v>12</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J23">
         <v>16</v>
@@ -1670,10 +1670,10 @@
         <v>57</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F24">
         <v>14</v>
@@ -1712,10 +1712,10 @@
         <v>12</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G25">
         <v>16</v>
@@ -1751,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="E26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26">
         <v>14</v>
@@ -1766,13 +1766,13 @@
         <v>14</v>
       </c>
       <c r="J26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K26">
         <v>20</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -1793,7 +1793,7 @@
         <v>14</v>
       </c>
       <c r="F27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G27">
         <v>15</v>
@@ -1829,10 +1829,10 @@
         <v>14</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G28">
         <v>17</v>
@@ -1841,13 +1841,13 @@
         <v>10</v>
       </c>
       <c r="I28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J28">
         <v>16</v>
       </c>
       <c r="K28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L28">
         <v>14</v>
@@ -1871,7 +1871,7 @@
         <v>16</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G29">
         <v>11</v>
@@ -1883,7 +1883,7 @@
         <v>15</v>
       </c>
       <c r="J29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K29">
         <v>20</v>
@@ -1916,7 +1916,7 @@
         <v>15</v>
       </c>
       <c r="H30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I30">
         <v>14</v>
@@ -1946,7 +1946,7 @@
         <v>19</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <v>13</v>
@@ -1955,7 +1955,7 @@
         <v>12</v>
       </c>
       <c r="H31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I31">
         <v>18</v>
@@ -1985,10 +1985,10 @@
         <v>18</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32">
         <v>14</v>
@@ -2021,13 +2021,13 @@
         <v>75</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>7</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G33">
         <v>11</v>
@@ -2036,7 +2036,7 @@
         <v>17</v>
       </c>
       <c r="I33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J33">
         <v>18</v>
@@ -2045,7 +2045,7 @@
         <v>11</v>
       </c>
       <c r="L33">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -2084,7 +2084,7 @@
         <v>14</v>
       </c>
       <c r="L34">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -2120,7 +2120,7 @@
         <v>10</v>
       </c>
       <c r="K35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L35">
         <v>13</v>
@@ -2141,7 +2141,7 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F36">
         <v>11</v>
@@ -2162,7 +2162,7 @@
         <v>12</v>
       </c>
       <c r="L36">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -2195,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="J37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K37">
         <v>12</v>
@@ -2216,7 +2216,7 @@
         <v>85</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>15</v>
@@ -2240,7 +2240,7 @@
         <v>14</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -2261,7 +2261,7 @@
         <v>14</v>
       </c>
       <c r="F39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G39">
         <v>10</v>
@@ -2273,7 +2273,7 @@
         <v>15</v>
       </c>
       <c r="J39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K39">
         <v>17</v>
@@ -2312,7 +2312,7 @@
         <v>12</v>
       </c>
       <c r="J40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K40">
         <v>16</v>
@@ -2333,7 +2333,7 @@
         <v>91</v>
       </c>
       <c r="D41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E41">
         <v>19</v>
@@ -2351,13 +2351,13 @@
         <v>17</v>
       </c>
       <c r="J41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K41">
         <v>12</v>
       </c>
       <c r="L41">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -2435,7 +2435,7 @@
         <v>12</v>
       </c>
       <c r="L43">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -2450,7 +2450,7 @@
         <v>97</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E44">
         <v>17</v>
@@ -2471,7 +2471,7 @@
         <v>13</v>
       </c>
       <c r="K44">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L44">
         <v>15</v>
@@ -2495,7 +2495,7 @@
         <v>14</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G45">
         <v>11</v>
@@ -2546,7 +2546,7 @@
         <v>14</v>
       </c>
       <c r="J46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K46">
         <v>12</v>
@@ -2582,7 +2582,7 @@
         <v>16</v>
       </c>
       <c r="I47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J47">
         <v>14</v>
@@ -2630,7 +2630,7 @@
         <v>17</v>
       </c>
       <c r="L48">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -2660,7 +2660,7 @@
         <v>19</v>
       </c>
       <c r="I49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J49">
         <v>10</v>
@@ -2687,7 +2687,7 @@
         <v>20</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F50">
         <v>10</v>
@@ -2699,10 +2699,10 @@
         <v>11</v>
       </c>
       <c r="I50">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J50">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K50">
         <v>12</v>
@@ -2723,13 +2723,13 @@
         <v>111</v>
       </c>
       <c r="D51">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G51">
         <v>12</v>
@@ -2738,7 +2738,7 @@
         <v>11</v>
       </c>
       <c r="I51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J51">
         <v>13</v>
